--- a/Binary/Matriz selección de variablesv2.xlsx
+++ b/Binary/Matriz selección de variablesv2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diana/Library/Mobile Documents/com~apple~CloudDocs/Maestria/Métodos estadísticos avanzados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - CELSIA S.A E.S.P\Maestría\Metodos estadisticos avanzados\Competencia\Binary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41363F96-E0F7-ED4D-8E09-02F365787421}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{41363F96-E0F7-ED4D-8E09-02F365787421}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{094458DE-CC35-437B-B1BB-F922A1BA5629}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="32900" windowHeight="18160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId1"/>
@@ -410,7 +410,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -561,7 +561,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3103,7 +3103,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="14" width="5" hidden="1" customWidth="1"/>
@@ -3111,9 +3111,9 @@
     <col min="16" max="18" width="5" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="5" customWidth="1"/>
     <col min="21" max="21" width="5" hidden="1" customWidth="1"/>
-    <col min="23" max="30" width="8.83203125" customWidth="1"/>
-    <col min="37" max="37" width="9.5" style="3" customWidth="1"/>
-    <col min="38" max="56" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="8.85546875" customWidth="1"/>
+    <col min="37" max="37" width="9.42578125" style="3" customWidth="1"/>
+    <col min="38" max="56" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56">
@@ -3280,87 +3280,87 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>IFERROR(IF(VLOOKUP($A2,AK$2:AK$20,1,0),1,0),0)</f>
+        <f t="shared" ref="B2:K3" si="0">IFERROR(IF(VLOOKUP($A2,AK$2:AK$20,1,0),1,0),0)</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>IFERROR(IF(VLOOKUP($A2,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>IFERROR(IF(VLOOKUP($A2,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>IFERROR(IF(VLOOKUP($A2,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>IFERROR(IF(VLOOKUP($A2,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>IFERROR(IF(VLOOKUP($A2,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>IFERROR(IF(VLOOKUP($A2,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>IFERROR(IF(VLOOKUP($A2,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>IFERROR(IF(VLOOKUP($A2,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>IFERROR(IF(VLOOKUP($A2,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>IFERROR(IF(VLOOKUP($A2,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" ref="L2:U3" si="1">IFERROR(IF(VLOOKUP($A2,AU$2:AU$20,1,0),1,0),0)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>IFERROR(IF(VLOOKUP($A2,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>IFERROR(IF(VLOOKUP($A2,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>IFERROR(IF(VLOOKUP($A2,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>IFERROR(IF(VLOOKUP($A2,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>IFERROR(IF(VLOOKUP($A2,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>IFERROR(IF(VLOOKUP($A2,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>IFERROR(IF(VLOOKUP($A2,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>IFERROR(IF(VLOOKUP($A2,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>IFERROR(IF(VLOOKUP($A2,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V2" s="3">
-        <f>SUM(B2:U2)</f>
+        <f t="shared" ref="V2:V36" si="2">SUM(B2:U2)</f>
         <v>0</v>
       </c>
       <c r="W2">
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="AE2" s="3">
-        <f>+SUM(W2:AD2)</f>
+        <f t="shared" ref="AE2:AE36" si="3">+SUM(W2:AD2)</f>
         <v>5</v>
       </c>
       <c r="AF2" s="3"/>
@@ -3458,87 +3458,87 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>IFERROR(IF(VLOOKUP($A3,AK$2:AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3">
-        <f>IFERROR(IF(VLOOKUP($A3,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>IFERROR(IF(VLOOKUP($A3,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3">
-        <f>IFERROR(IF(VLOOKUP($A3,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3">
-        <f>IFERROR(IF(VLOOKUP($A3,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G3">
-        <f>IFERROR(IF(VLOOKUP($A3,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3">
-        <f>IFERROR(IF(VLOOKUP($A3,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I3">
-        <f>IFERROR(IF(VLOOKUP($A3,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J3">
-        <f>IFERROR(IF(VLOOKUP($A3,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K3">
-        <f>IFERROR(IF(VLOOKUP($A3,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <f>IFERROR(IF(VLOOKUP($A3,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M3">
-        <f>IFERROR(IF(VLOOKUP($A3,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N3">
-        <f>IFERROR(IF(VLOOKUP($A3,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>IFERROR(IF(VLOOKUP($A3,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P3">
-        <f>IFERROR(IF(VLOOKUP($A3,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q3">
-        <f>IFERROR(IF(VLOOKUP($A3,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>IFERROR(IF(VLOOKUP($A3,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S3">
-        <f>IFERROR(IF(VLOOKUP($A3,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T3">
-        <f>IFERROR(IF(VLOOKUP($A3,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U3">
-        <f>IFERROR(IF(VLOOKUP($A3,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V3" s="3">
-        <f>SUM(B3:U3)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="W3">
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="3">
-        <f>+SUM(W3:AD3)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AF3" s="3"/>
@@ -3636,87 +3636,87 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>IFERROR(IF(VLOOKUP($A4,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" ref="B4:B35" si="4">IFERROR(IF(VLOOKUP($A4,$AK$2:$AK$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="C4">
-        <f>IFERROR(IF(VLOOKUP($A4,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" ref="C4:C35" si="5">IFERROR(IF(VLOOKUP($A4,AL$2:AL$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="D4">
-        <f>IFERROR(IF(VLOOKUP($A4,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" ref="D4:D35" si="6">IFERROR(IF(VLOOKUP($A4,AM$2:AM$20,1,0),1,0),0)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>IFERROR(IF(VLOOKUP($A4,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" ref="E4:E35" si="7">IFERROR(IF(VLOOKUP($A4,AN$2:AN$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f>IFERROR(IF(VLOOKUP($A4,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" ref="F4:F35" si="8">IFERROR(IF(VLOOKUP($A4,AO$2:AO$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f>IFERROR(IF(VLOOKUP($A4,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" ref="G4:G35" si="9">IFERROR(IF(VLOOKUP($A4,AP$2:AP$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="H4">
-        <f>IFERROR(IF(VLOOKUP($A4,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" ref="H4:H35" si="10">IFERROR(IF(VLOOKUP($A4,AQ$2:AQ$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="I4">
-        <f>IFERROR(IF(VLOOKUP($A4,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" ref="I4:I35" si="11">IFERROR(IF(VLOOKUP($A4,AR$2:AR$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="J4">
-        <f>IFERROR(IF(VLOOKUP($A4,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" ref="J4:J35" si="12">IFERROR(IF(VLOOKUP($A4,AS$2:AS$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="K4">
-        <f>IFERROR(IF(VLOOKUP($A4,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" ref="K4:K35" si="13">IFERROR(IF(VLOOKUP($A4,AT$2:AT$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="L4">
-        <f>IFERROR(IF(VLOOKUP($A4,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" ref="L4:L35" si="14">IFERROR(IF(VLOOKUP($A4,AU$2:AU$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="M4">
-        <f>IFERROR(IF(VLOOKUP($A4,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" ref="M4:M35" si="15">IFERROR(IF(VLOOKUP($A4,AV$2:AV$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="N4">
-        <f>IFERROR(IF(VLOOKUP($A4,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" ref="N4:N35" si="16">IFERROR(IF(VLOOKUP($A4,AW$2:AW$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="O4">
-        <f>IFERROR(IF(VLOOKUP($A4,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" ref="O4:O35" si="17">IFERROR(IF(VLOOKUP($A4,AX$2:AX$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="P4">
-        <f>IFERROR(IF(VLOOKUP($A4,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" ref="P4:P35" si="18">IFERROR(IF(VLOOKUP($A4,AY$2:AY$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="Q4">
-        <f>IFERROR(IF(VLOOKUP($A4,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" ref="Q4:Q35" si="19">IFERROR(IF(VLOOKUP($A4,AZ$2:AZ$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="R4">
-        <f>IFERROR(IF(VLOOKUP($A4,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" ref="R4:R35" si="20">IFERROR(IF(VLOOKUP($A4,BA$2:BA$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="S4">
-        <f>IFERROR(IF(VLOOKUP($A4,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" ref="S4:S35" si="21">IFERROR(IF(VLOOKUP($A4,BB$2:BB$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="T4">
-        <f>IFERROR(IF(VLOOKUP($A4,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" ref="T4:T35" si="22">IFERROR(IF(VLOOKUP($A4,BC$2:BC$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="U4">
-        <f>IFERROR(IF(VLOOKUP($A4,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" ref="U4:U35" si="23">IFERROR(IF(VLOOKUP($A4,BD$2:BD$20,1,0),1,0),0)</f>
         <v>1</v>
       </c>
       <c r="V4" s="3">
-        <f>SUM(B4:U4)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="W4">
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="3">
-        <f>+SUM(W4:AD4)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF4" s="3"/>
@@ -3817,87 +3817,87 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>IFERROR(IF(VLOOKUP($A5,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C5">
-        <f>IFERROR(IF(VLOOKUP($A5,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>IFERROR(IF(VLOOKUP($A5,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>IFERROR(IF(VLOOKUP($A5,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>IFERROR(IF(VLOOKUP($A5,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>IFERROR(IF(VLOOKUP($A5,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>IFERROR(IF(VLOOKUP($A5,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>IFERROR(IF(VLOOKUP($A5,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>IFERROR(IF(VLOOKUP($A5,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>IFERROR(IF(VLOOKUP($A5,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f>IFERROR(IF(VLOOKUP($A5,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M5">
-        <f>IFERROR(IF(VLOOKUP($A5,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N5">
-        <f>IFERROR(IF(VLOOKUP($A5,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O5">
-        <f>IFERROR(IF(VLOOKUP($A5,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>IFERROR(IF(VLOOKUP($A5,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>IFERROR(IF(VLOOKUP($A5,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>IFERROR(IF(VLOOKUP($A5,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S5">
-        <f>IFERROR(IF(VLOOKUP($A5,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>IFERROR(IF(VLOOKUP($A5,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>IFERROR(IF(VLOOKUP($A5,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V5" s="3">
-        <f>SUM(B5:U5)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W5">
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="3">
-        <f>+SUM(W5:AD5)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AF5" s="3"/>
@@ -3998,87 +3998,87 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>IFERROR(IF(VLOOKUP($A6,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>IFERROR(IF(VLOOKUP($A6,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>IFERROR(IF(VLOOKUP($A6,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>IFERROR(IF(VLOOKUP($A6,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>IFERROR(IF(VLOOKUP($A6,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>IFERROR(IF(VLOOKUP($A6,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H6">
-        <f>IFERROR(IF(VLOOKUP($A6,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>IFERROR(IF(VLOOKUP($A6,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>IFERROR(IF(VLOOKUP($A6,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K6">
-        <f>IFERROR(IF(VLOOKUP($A6,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L6">
-        <f>IFERROR(IF(VLOOKUP($A6,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>IFERROR(IF(VLOOKUP($A6,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>IFERROR(IF(VLOOKUP($A6,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>IFERROR(IF(VLOOKUP($A6,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P6">
-        <f>IFERROR(IF(VLOOKUP($A6,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q6">
-        <f>IFERROR(IF(VLOOKUP($A6,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>IFERROR(IF(VLOOKUP($A6,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S6">
-        <f>IFERROR(IF(VLOOKUP($A6,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T6">
-        <f>IFERROR(IF(VLOOKUP($A6,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U6">
-        <f>IFERROR(IF(VLOOKUP($A6,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V6" s="3">
-        <f>SUM(B6:U6)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="W6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="3">
-        <f>+SUM(W6:AD6)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AF6" s="3"/>
@@ -4179,87 +4179,87 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>IFERROR(IF(VLOOKUP($A7,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>IFERROR(IF(VLOOKUP($A7,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>IFERROR(IF(VLOOKUP($A7,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>IFERROR(IF(VLOOKUP($A7,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F7">
-        <f>IFERROR(IF(VLOOKUP($A7,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>IFERROR(IF(VLOOKUP($A7,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>IFERROR(IF(VLOOKUP($A7,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I7">
-        <f>IFERROR(IF(VLOOKUP($A7,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>IFERROR(IF(VLOOKUP($A7,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>IFERROR(IF(VLOOKUP($A7,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>IFERROR(IF(VLOOKUP($A7,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M7">
-        <f>IFERROR(IF(VLOOKUP($A7,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>IFERROR(IF(VLOOKUP($A7,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>IFERROR(IF(VLOOKUP($A7,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>IFERROR(IF(VLOOKUP($A7,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>IFERROR(IF(VLOOKUP($A7,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>IFERROR(IF(VLOOKUP($A7,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>IFERROR(IF(VLOOKUP($A7,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T7">
-        <f>IFERROR(IF(VLOOKUP($A7,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U7">
-        <f>IFERROR(IF(VLOOKUP($A7,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V7" s="3">
-        <f>SUM(B7:U7)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W7">
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="3">
-        <f>+SUM(W7:AD7)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF7" s="3"/>
@@ -4357,87 +4357,87 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f>IFERROR(IF(VLOOKUP($A8,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>IFERROR(IF(VLOOKUP($A8,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>IFERROR(IF(VLOOKUP($A8,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>IFERROR(IF(VLOOKUP($A8,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F8">
-        <f>IFERROR(IF(VLOOKUP($A8,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>IFERROR(IF(VLOOKUP($A8,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H8">
-        <f>IFERROR(IF(VLOOKUP($A8,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I8">
-        <f>IFERROR(IF(VLOOKUP($A8,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J8">
-        <f>IFERROR(IF(VLOOKUP($A8,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>IFERROR(IF(VLOOKUP($A8,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>IFERROR(IF(VLOOKUP($A8,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>IFERROR(IF(VLOOKUP($A8,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N8">
-        <f>IFERROR(IF(VLOOKUP($A8,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>IFERROR(IF(VLOOKUP($A8,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>IFERROR(IF(VLOOKUP($A8,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>IFERROR(IF(VLOOKUP($A8,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>IFERROR(IF(VLOOKUP($A8,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>IFERROR(IF(VLOOKUP($A8,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>IFERROR(IF(VLOOKUP($A8,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>IFERROR(IF(VLOOKUP($A8,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V8" s="3">
-        <f>SUM(B8:U8)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="W8">
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="3">
-        <f>+SUM(W8:AD8)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AF8" s="3"/>
@@ -4538,87 +4538,87 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>IFERROR(IF(VLOOKUP($A9,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C9">
-        <f>IFERROR(IF(VLOOKUP($A9,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>IFERROR(IF(VLOOKUP($A9,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E9">
-        <f>IFERROR(IF(VLOOKUP($A9,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>IFERROR(IF(VLOOKUP($A9,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>IFERROR(IF(VLOOKUP($A9,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>IFERROR(IF(VLOOKUP($A9,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>IFERROR(IF(VLOOKUP($A9,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>IFERROR(IF(VLOOKUP($A9,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>IFERROR(IF(VLOOKUP($A9,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>IFERROR(IF(VLOOKUP($A9,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>IFERROR(IF(VLOOKUP($A9,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>IFERROR(IF(VLOOKUP($A9,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>IFERROR(IF(VLOOKUP($A9,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>IFERROR(IF(VLOOKUP($A9,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>IFERROR(IF(VLOOKUP($A9,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>IFERROR(IF(VLOOKUP($A9,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>IFERROR(IF(VLOOKUP($A9,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>IFERROR(IF(VLOOKUP($A9,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>IFERROR(IF(VLOOKUP($A9,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <f>SUM(B9:U9)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W9">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="AE9" s="3">
-        <f>+SUM(W9:AD9)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AF9" s="3"/>
@@ -4719,87 +4719,87 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>IFERROR(IF(VLOOKUP($A10,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C10">
-        <f>IFERROR(IF(VLOOKUP($A10,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>IFERROR(IF(VLOOKUP($A10,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>IFERROR(IF(VLOOKUP($A10,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F10">
-        <f>IFERROR(IF(VLOOKUP($A10,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f>IFERROR(IF(VLOOKUP($A10,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>IFERROR(IF(VLOOKUP($A10,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>IFERROR(IF(VLOOKUP($A10,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J10">
-        <f>IFERROR(IF(VLOOKUP($A10,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K10">
-        <f>IFERROR(IF(VLOOKUP($A10,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>IFERROR(IF(VLOOKUP($A10,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>IFERROR(IF(VLOOKUP($A10,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N10">
-        <f>IFERROR(IF(VLOOKUP($A10,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>IFERROR(IF(VLOOKUP($A10,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P10">
-        <f>IFERROR(IF(VLOOKUP($A10,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q10">
-        <f>IFERROR(IF(VLOOKUP($A10,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R10">
-        <f>IFERROR(IF(VLOOKUP($A10,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S10">
-        <f>IFERROR(IF(VLOOKUP($A10,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>IFERROR(IF(VLOOKUP($A10,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U10">
-        <f>IFERROR(IF(VLOOKUP($A10,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V10" s="3">
-        <f>SUM(B10:U10)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="W10">
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="AE10" s="3">
-        <f>+SUM(W10:AD10)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF10" s="3"/>
@@ -4897,87 +4897,87 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>IFERROR(IF(VLOOKUP($A11,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C11">
-        <f>IFERROR(IF(VLOOKUP($A11,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>IFERROR(IF(VLOOKUP($A11,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>IFERROR(IF(VLOOKUP($A11,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>IFERROR(IF(VLOOKUP($A11,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>IFERROR(IF(VLOOKUP($A11,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>IFERROR(IF(VLOOKUP($A11,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IFERROR(IF(VLOOKUP($A11,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>IFERROR(IF(VLOOKUP($A11,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>IFERROR(IF(VLOOKUP($A11,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>IFERROR(IF(VLOOKUP($A11,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>IFERROR(IF(VLOOKUP($A11,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>IFERROR(IF(VLOOKUP($A11,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>IFERROR(IF(VLOOKUP($A11,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>IFERROR(IF(VLOOKUP($A11,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q11">
-        <f>IFERROR(IF(VLOOKUP($A11,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R11">
-        <f>IFERROR(IF(VLOOKUP($A11,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>IFERROR(IF(VLOOKUP($A11,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>IFERROR(IF(VLOOKUP($A11,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f>IFERROR(IF(VLOOKUP($A11,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V11" s="3">
-        <f>SUM(B11:U11)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W11">
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="3">
-        <f>+SUM(W11:AD11)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AF11" s="3"/>
@@ -5078,87 +5078,87 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>IFERROR(IF(VLOOKUP($A12,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C12">
-        <f>IFERROR(IF(VLOOKUP($A12,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>IFERROR(IF(VLOOKUP($A12,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>IFERROR(IF(VLOOKUP($A12,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>IFERROR(IF(VLOOKUP($A12,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>IFERROR(IF(VLOOKUP($A12,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>IFERROR(IF(VLOOKUP($A12,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>IFERROR(IF(VLOOKUP($A12,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J12">
-        <f>IFERROR(IF(VLOOKUP($A12,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K12">
-        <f>IFERROR(IF(VLOOKUP($A12,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>IFERROR(IF(VLOOKUP($A12,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>IFERROR(IF(VLOOKUP($A12,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N12">
-        <f>IFERROR(IF(VLOOKUP($A12,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O12">
-        <f>IFERROR(IF(VLOOKUP($A12,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>IFERROR(IF(VLOOKUP($A12,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>IFERROR(IF(VLOOKUP($A12,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R12">
-        <f>IFERROR(IF(VLOOKUP($A12,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>IFERROR(IF(VLOOKUP($A12,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T12">
-        <f>IFERROR(IF(VLOOKUP($A12,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>IFERROR(IF(VLOOKUP($A12,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V12" s="3">
-        <f>SUM(B12:U12)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W12">
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="AE12" s="3">
-        <f>+SUM(W12:AD12)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AF12" s="3"/>
@@ -5259,87 +5259,87 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f>IFERROR(IF(VLOOKUP($A13,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>IFERROR(IF(VLOOKUP($A13,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>IFERROR(IF(VLOOKUP($A13,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>IFERROR(IF(VLOOKUP($A13,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>IFERROR(IF(VLOOKUP($A13,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>IFERROR(IF(VLOOKUP($A13,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>IFERROR(IF(VLOOKUP($A13,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>IFERROR(IF(VLOOKUP($A13,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>IFERROR(IF(VLOOKUP($A13,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>IFERROR(IF(VLOOKUP($A13,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>IFERROR(IF(VLOOKUP($A13,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>IFERROR(IF(VLOOKUP($A13,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>IFERROR(IF(VLOOKUP($A13,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>IFERROR(IF(VLOOKUP($A13,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>IFERROR(IF(VLOOKUP($A13,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>IFERROR(IF(VLOOKUP($A13,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R13">
-        <f>IFERROR(IF(VLOOKUP($A13,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>IFERROR(IF(VLOOKUP($A13,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>IFERROR(IF(VLOOKUP($A13,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f>IFERROR(IF(VLOOKUP($A13,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V13" s="3">
-        <f>SUM(B13:U13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13">
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="3">
-        <f>+SUM(W13:AD13)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AF13" s="3"/>
@@ -5431,87 +5431,87 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>IFERROR(IF(VLOOKUP($A14,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C14">
-        <f>IFERROR(IF(VLOOKUP($A14,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D14">
-        <f>IFERROR(IF(VLOOKUP($A14,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>IFERROR(IF(VLOOKUP($A14,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>IFERROR(IF(VLOOKUP($A14,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G14">
-        <f>IFERROR(IF(VLOOKUP($A14,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>IFERROR(IF(VLOOKUP($A14,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I14">
-        <f>IFERROR(IF(VLOOKUP($A14,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>IFERROR(IF(VLOOKUP($A14,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>IFERROR(IF(VLOOKUP($A14,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>IFERROR(IF(VLOOKUP($A14,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M14">
-        <f>IFERROR(IF(VLOOKUP($A14,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N14">
-        <f>IFERROR(IF(VLOOKUP($A14,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O14">
-        <f>IFERROR(IF(VLOOKUP($A14,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P14">
-        <f>IFERROR(IF(VLOOKUP($A14,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q14">
-        <f>IFERROR(IF(VLOOKUP($A14,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f>IFERROR(IF(VLOOKUP($A14,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S14">
-        <f>IFERROR(IF(VLOOKUP($A14,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T14">
-        <f>IFERROR(IF(VLOOKUP($A14,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U14">
-        <f>IFERROR(IF(VLOOKUP($A14,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V14" s="3">
-        <f>SUM(B14:U14)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="W14">
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="3">
-        <f>+SUM(W14:AD14)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF14" s="3"/>
@@ -5597,87 +5597,87 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f>IFERROR(IF(VLOOKUP($A15,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C15">
-        <f>IFERROR(IF(VLOOKUP($A15,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D15">
-        <f>IFERROR(IF(VLOOKUP($A15,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>IFERROR(IF(VLOOKUP($A15,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>IFERROR(IF(VLOOKUP($A15,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>IFERROR(IF(VLOOKUP($A15,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>IFERROR(IF(VLOOKUP($A15,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>IFERROR(IF(VLOOKUP($A15,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>IFERROR(IF(VLOOKUP($A15,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>IFERROR(IF(VLOOKUP($A15,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L15">
-        <f>IFERROR(IF(VLOOKUP($A15,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>IFERROR(IF(VLOOKUP($A15,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N15">
-        <f>IFERROR(IF(VLOOKUP($A15,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O15">
-        <f>IFERROR(IF(VLOOKUP($A15,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>IFERROR(IF(VLOOKUP($A15,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>IFERROR(IF(VLOOKUP($A15,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R15">
-        <f>IFERROR(IF(VLOOKUP($A15,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f>IFERROR(IF(VLOOKUP($A15,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>IFERROR(IF(VLOOKUP($A15,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f>IFERROR(IF(VLOOKUP($A15,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <f>SUM(B15:U15)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="W15">
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="3">
-        <f>+SUM(W15:AD15)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF15" s="3"/>
@@ -5757,87 +5757,87 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f>IFERROR(IF(VLOOKUP($A16,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C16">
-        <f>IFERROR(IF(VLOOKUP($A16,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D16">
-        <f>IFERROR(IF(VLOOKUP($A16,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f>IFERROR(IF(VLOOKUP($A16,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>IFERROR(IF(VLOOKUP($A16,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G16">
-        <f>IFERROR(IF(VLOOKUP($A16,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>IFERROR(IF(VLOOKUP($A16,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>IFERROR(IF(VLOOKUP($A16,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>IFERROR(IF(VLOOKUP($A16,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>IFERROR(IF(VLOOKUP($A16,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L16">
-        <f>IFERROR(IF(VLOOKUP($A16,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M16">
-        <f>IFERROR(IF(VLOOKUP($A16,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>IFERROR(IF(VLOOKUP($A16,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O16">
-        <f>IFERROR(IF(VLOOKUP($A16,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P16">
-        <f>IFERROR(IF(VLOOKUP($A16,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>IFERROR(IF(VLOOKUP($A16,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R16">
-        <f>IFERROR(IF(VLOOKUP($A16,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S16">
-        <f>IFERROR(IF(VLOOKUP($A16,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f>IFERROR(IF(VLOOKUP($A16,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U16">
-        <f>IFERROR(IF(VLOOKUP($A16,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V16" s="3">
-        <f>SUM(B16:U16)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="W16">
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="3">
-        <f>+SUM(W16:AD16)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AF16" s="3"/>
@@ -5908,87 +5908,87 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f>IFERROR(IF(VLOOKUP($A17,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <f>IFERROR(IF(VLOOKUP($A17,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D17">
-        <f>IFERROR(IF(VLOOKUP($A17,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>IFERROR(IF(VLOOKUP($A17,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>IFERROR(IF(VLOOKUP($A17,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f>IFERROR(IF(VLOOKUP($A17,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H17">
-        <f>IFERROR(IF(VLOOKUP($A17,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IFERROR(IF(VLOOKUP($A17,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>IFERROR(IF(VLOOKUP($A17,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K17">
-        <f>IFERROR(IF(VLOOKUP($A17,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L17">
-        <f>IFERROR(IF(VLOOKUP($A17,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M17">
-        <f>IFERROR(IF(VLOOKUP($A17,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N17">
-        <f>IFERROR(IF(VLOOKUP($A17,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>IFERROR(IF(VLOOKUP($A17,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P17">
-        <f>IFERROR(IF(VLOOKUP($A17,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q17">
-        <f>IFERROR(IF(VLOOKUP($A17,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R17">
-        <f>IFERROR(IF(VLOOKUP($A17,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S17">
-        <f>IFERROR(IF(VLOOKUP($A17,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f>IFERROR(IF(VLOOKUP($A17,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U17">
-        <f>IFERROR(IF(VLOOKUP($A17,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V17" s="3">
-        <f>SUM(B17:U17)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="W17">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="3">
-        <f>+SUM(W17:AD17)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF17" s="3"/>
@@ -6053,87 +6053,87 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>IFERROR(IF(VLOOKUP($A18,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C18">
-        <f>IFERROR(IF(VLOOKUP($A18,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D18">
-        <f>IFERROR(IF(VLOOKUP($A18,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>IFERROR(IF(VLOOKUP($A18,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>IFERROR(IF(VLOOKUP($A18,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>IFERROR(IF(VLOOKUP($A18,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>IFERROR(IF(VLOOKUP($A18,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>IFERROR(IF(VLOOKUP($A18,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>IFERROR(IF(VLOOKUP($A18,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>IFERROR(IF(VLOOKUP($A18,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>IFERROR(IF(VLOOKUP($A18,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M18">
-        <f>IFERROR(IF(VLOOKUP($A18,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>IFERROR(IF(VLOOKUP($A18,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>IFERROR(IF(VLOOKUP($A18,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>IFERROR(IF(VLOOKUP($A18,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>IFERROR(IF(VLOOKUP($A18,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R18">
-        <f>IFERROR(IF(VLOOKUP($A18,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S18">
-        <f>IFERROR(IF(VLOOKUP($A18,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f>IFERROR(IF(VLOOKUP($A18,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U18">
-        <f>IFERROR(IF(VLOOKUP($A18,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V18" s="3">
-        <f>SUM(B18:U18)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="W18">
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="AE18" s="3">
-        <f>+SUM(W18:AD18)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AF18" s="3"/>
@@ -6189,87 +6189,87 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>IFERROR(IF(VLOOKUP($A19,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C19">
-        <f>IFERROR(IF(VLOOKUP($A19,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f>IFERROR(IF(VLOOKUP($A19,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f>IFERROR(IF(VLOOKUP($A19,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f>IFERROR(IF(VLOOKUP($A19,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G19">
-        <f>IFERROR(IF(VLOOKUP($A19,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f>IFERROR(IF(VLOOKUP($A19,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I19">
-        <f>IFERROR(IF(VLOOKUP($A19,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J19">
-        <f>IFERROR(IF(VLOOKUP($A19,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K19">
-        <f>IFERROR(IF(VLOOKUP($A19,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L19">
-        <f>IFERROR(IF(VLOOKUP($A19,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M19">
-        <f>IFERROR(IF(VLOOKUP($A19,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IFERROR(IF(VLOOKUP($A19,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O19">
-        <f>IFERROR(IF(VLOOKUP($A19,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f>IFERROR(IF(VLOOKUP($A19,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q19">
-        <f>IFERROR(IF(VLOOKUP($A19,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R19">
-        <f>IFERROR(IF(VLOOKUP($A19,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S19">
-        <f>IFERROR(IF(VLOOKUP($A19,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T19">
-        <f>IFERROR(IF(VLOOKUP($A19,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U19">
-        <f>IFERROR(IF(VLOOKUP($A19,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V19" s="3">
-        <f>SUM(B19:U19)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="W19">
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="3">
-        <f>+SUM(W19:AD19)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AF19" s="3"/>
@@ -6316,87 +6316,87 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f>IFERROR(IF(VLOOKUP($A20,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C20">
-        <f>IFERROR(IF(VLOOKUP($A20,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D20">
-        <f>IFERROR(IF(VLOOKUP($A20,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E20">
-        <f>IFERROR(IF(VLOOKUP($A20,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F20">
-        <f>IFERROR(IF(VLOOKUP($A20,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G20">
-        <f>IFERROR(IF(VLOOKUP($A20,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H20">
-        <f>IFERROR(IF(VLOOKUP($A20,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I20">
-        <f>IFERROR(IF(VLOOKUP($A20,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J20">
-        <f>IFERROR(IF(VLOOKUP($A20,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K20">
-        <f>IFERROR(IF(VLOOKUP($A20,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L20">
-        <f>IFERROR(IF(VLOOKUP($A20,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M20">
-        <f>IFERROR(IF(VLOOKUP($A20,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N20">
-        <f>IFERROR(IF(VLOOKUP($A20,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O20">
-        <f>IFERROR(IF(VLOOKUP($A20,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P20">
-        <f>IFERROR(IF(VLOOKUP($A20,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q20">
-        <f>IFERROR(IF(VLOOKUP($A20,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R20">
-        <f>IFERROR(IF(VLOOKUP($A20,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S20">
-        <f>IFERROR(IF(VLOOKUP($A20,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T20">
-        <f>IFERROR(IF(VLOOKUP($A20,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U20">
-        <f>IFERROR(IF(VLOOKUP($A20,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V20" s="3">
-        <f>SUM(B20:U20)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="W20">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="3">
-        <f>+SUM(W20:AD20)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF20" s="3"/>
@@ -6494,87 +6494,87 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f>IFERROR(IF(VLOOKUP($A21,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C21">
-        <f>IFERROR(IF(VLOOKUP($A21,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D21">
-        <f>IFERROR(IF(VLOOKUP($A21,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>IFERROR(IF(VLOOKUP($A21,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f>IFERROR(IF(VLOOKUP($A21,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>IFERROR(IF(VLOOKUP($A21,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>IFERROR(IF(VLOOKUP($A21,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I21">
-        <f>IFERROR(IF(VLOOKUP($A21,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J21">
-        <f>IFERROR(IF(VLOOKUP($A21,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K21">
-        <f>IFERROR(IF(VLOOKUP($A21,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L21">
-        <f>IFERROR(IF(VLOOKUP($A21,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M21">
-        <f>IFERROR(IF(VLOOKUP($A21,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IFERROR(IF(VLOOKUP($A21,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>IFERROR(IF(VLOOKUP($A21,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f>IFERROR(IF(VLOOKUP($A21,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q21">
-        <f>IFERROR(IF(VLOOKUP($A21,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R21">
-        <f>IFERROR(IF(VLOOKUP($A21,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S21">
-        <f>IFERROR(IF(VLOOKUP($A21,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T21">
-        <f>IFERROR(IF(VLOOKUP($A21,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U21">
-        <f>IFERROR(IF(VLOOKUP($A21,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V21" s="3">
-        <f>SUM(B21:U21)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="W21">
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <f>+SUM(W21:AD21)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF21" s="3"/>
@@ -6607,83 +6607,83 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AK21" s="3">
-        <f>+COUNT(AK2:AK19)</f>
+        <f t="shared" ref="AK21:BD21" si="24">+COUNT(AK2:AK19)</f>
         <v>11</v>
       </c>
       <c r="AL21" s="3">
-        <f>+COUNT(AL2:AL19)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="AM21" s="3">
-        <f>+COUNT(AM2:AM19)</f>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="AN21" s="3">
-        <f>+COUNT(AN2:AN19)</f>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="AO21" s="3">
-        <f>+COUNT(AO2:AO19)</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="AP21" s="3">
-        <f>+COUNT(AP2:AP19)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="AQ21" s="3">
-        <f>+COUNT(AQ2:AQ19)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="AR21" s="3">
-        <f>+COUNT(AR2:AR19)</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="AS21" s="3">
-        <f>+COUNT(AS2:AS19)</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="AT21" s="3">
-        <f>+COUNT(AT2:AT19)</f>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="AU21" s="3">
-        <f>+COUNT(AU2:AU19)</f>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="AV21" s="3">
-        <f>+COUNT(AV2:AV19)</f>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
       <c r="AW21" s="3">
-        <f>+COUNT(AW2:AW19)</f>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="AX21" s="3">
-        <f>+COUNT(AX2:AX19)</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="AY21" s="3">
-        <f>+COUNT(AY2:AY19)</f>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="AZ21" s="3">
-        <f>+COUNT(AZ2:AZ19)</f>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="BA21" s="3">
-        <f>+COUNT(BA2:BA19)</f>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
       <c r="BB21" s="3">
-        <f>+COUNT(BB2:BB19)</f>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="BC21" s="3">
-        <f>+COUNT(BC2:BC19)</f>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="BD21" s="3">
-        <f>+COUNT(BD2:BD19)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
     </row>
@@ -6692,87 +6692,87 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>IFERROR(IF(VLOOKUP($A22,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>IFERROR(IF(VLOOKUP($A22,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D22">
-        <f>IFERROR(IF(VLOOKUP($A22,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E22">
-        <f>IFERROR(IF(VLOOKUP($A22,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F22">
-        <f>IFERROR(IF(VLOOKUP($A22,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>IFERROR(IF(VLOOKUP($A22,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H22">
-        <f>IFERROR(IF(VLOOKUP($A22,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I22">
-        <f>IFERROR(IF(VLOOKUP($A22,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J22">
-        <f>IFERROR(IF(VLOOKUP($A22,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K22">
-        <f>IFERROR(IF(VLOOKUP($A22,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L22">
-        <f>IFERROR(IF(VLOOKUP($A22,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M22">
-        <f>IFERROR(IF(VLOOKUP($A22,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f>IFERROR(IF(VLOOKUP($A22,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O22">
-        <f>IFERROR(IF(VLOOKUP($A22,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P22">
-        <f>IFERROR(IF(VLOOKUP($A22,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q22">
-        <f>IFERROR(IF(VLOOKUP($A22,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f>IFERROR(IF(VLOOKUP($A22,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S22">
-        <f>IFERROR(IF(VLOOKUP($A22,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T22">
-        <f>IFERROR(IF(VLOOKUP($A22,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U22">
-        <f>IFERROR(IF(VLOOKUP($A22,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V22" s="3">
-        <f>SUM(B22:U22)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="W22">
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="3">
-        <f>+SUM(W22:AD22)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AF22" s="3"/>
@@ -6873,87 +6873,87 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>IFERROR(IF(VLOOKUP($A23,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>IFERROR(IF(VLOOKUP($A23,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>IFERROR(IF(VLOOKUP($A23,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E23">
-        <f>IFERROR(IF(VLOOKUP($A23,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>IFERROR(IF(VLOOKUP($A23,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>IFERROR(IF(VLOOKUP($A23,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>IFERROR(IF(VLOOKUP($A23,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>IFERROR(IF(VLOOKUP($A23,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J23">
-        <f>IFERROR(IF(VLOOKUP($A23,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>IFERROR(IF(VLOOKUP($A23,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>IFERROR(IF(VLOOKUP($A23,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>IFERROR(IF(VLOOKUP($A23,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>IFERROR(IF(VLOOKUP($A23,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>IFERROR(IF(VLOOKUP($A23,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>IFERROR(IF(VLOOKUP($A23,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>IFERROR(IF(VLOOKUP($A23,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R23">
-        <f>IFERROR(IF(VLOOKUP($A23,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S23">
-        <f>IFERROR(IF(VLOOKUP($A23,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T23">
-        <f>IFERROR(IF(VLOOKUP($A23,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U23">
-        <f>IFERROR(IF(VLOOKUP($A23,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <f>SUM(B23:U23)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W23">
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="3">
-        <f>+SUM(W23:AD23)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AF23" s="3"/>
@@ -6989,83 +6989,83 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AK23" s="3" t="b">
-        <f>+AK22=AK21</f>
+        <f t="shared" ref="AK23:BD23" si="25">+AK22=AK21</f>
         <v>1</v>
       </c>
       <c r="AL23" s="3" t="b">
-        <f>+AL22=AL21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AM23" s="3" t="b">
-        <f>+AM22=AM21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AN23" s="3" t="b">
-        <f>+AN22=AN21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AO23" s="3" t="b">
-        <f>+AO22=AO21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AP23" s="3" t="b">
-        <f>+AP22=AP21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AQ23" s="3" t="b">
-        <f>+AQ22=AQ21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AR23" s="3" t="b">
-        <f>+AR22=AR21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AS23" s="3" t="b">
-        <f>+AS22=AS21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AT23" s="3" t="b">
-        <f>+AT22=AT21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AU23" s="3" t="b">
-        <f>+AU22=AU21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AV23" s="3" t="b">
-        <f>+AV22=AV21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AW23" s="3" t="b">
-        <f>+AW22=AW21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AX23" s="3" t="b">
-        <f>+AX22=AX21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AY23" s="3" t="b">
-        <f>+AY22=AY21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AZ23" s="3" t="b">
-        <f>+AZ22=AZ21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="BA23" s="3" t="b">
-        <f>+BA22=BA21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="BB23" s="3" t="b">
-        <f>+BB22=BB21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="BC23" s="3" t="b">
-        <f>+BC22=BC21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="BD23" s="3" t="b">
-        <f>+BD22=BD21</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -7074,87 +7074,87 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>IFERROR(IF(VLOOKUP($A24,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C24">
-        <f>IFERROR(IF(VLOOKUP($A24,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>IFERROR(IF(VLOOKUP($A24,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E24">
-        <f>IFERROR(IF(VLOOKUP($A24,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>IFERROR(IF(VLOOKUP($A24,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>IFERROR(IF(VLOOKUP($A24,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>IFERROR(IF(VLOOKUP($A24,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>IFERROR(IF(VLOOKUP($A24,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>IFERROR(IF(VLOOKUP($A24,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f>IFERROR(IF(VLOOKUP($A24,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>IFERROR(IF(VLOOKUP($A24,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>IFERROR(IF(VLOOKUP($A24,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>IFERROR(IF(VLOOKUP($A24,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f>IFERROR(IF(VLOOKUP($A24,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f>IFERROR(IF(VLOOKUP($A24,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>IFERROR(IF(VLOOKUP($A24,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f>IFERROR(IF(VLOOKUP($A24,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f>IFERROR(IF(VLOOKUP($A24,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T24">
-        <f>IFERROR(IF(VLOOKUP($A24,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U24">
-        <f>IFERROR(IF(VLOOKUP($A24,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <f>SUM(B24:U24)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W24">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="AE24" s="3">
-        <f>+SUM(W24:AD24)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AF24" s="3"/>
@@ -7192,87 +7192,87 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>IFERROR(IF(VLOOKUP($A25,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C25">
-        <f>IFERROR(IF(VLOOKUP($A25,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D25">
-        <f>IFERROR(IF(VLOOKUP($A25,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E25">
-        <f>IFERROR(IF(VLOOKUP($A25,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F25">
-        <f>IFERROR(IF(VLOOKUP($A25,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G25">
-        <f>IFERROR(IF(VLOOKUP($A25,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H25">
-        <f>IFERROR(IF(VLOOKUP($A25,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I25">
-        <f>IFERROR(IF(VLOOKUP($A25,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J25">
-        <f>IFERROR(IF(VLOOKUP($A25,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>IFERROR(IF(VLOOKUP($A25,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L25">
-        <f>IFERROR(IF(VLOOKUP($A25,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M25">
-        <f>IFERROR(IF(VLOOKUP($A25,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N25">
-        <f>IFERROR(IF(VLOOKUP($A25,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>IFERROR(IF(VLOOKUP($A25,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P25">
-        <f>IFERROR(IF(VLOOKUP($A25,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q25">
-        <f>IFERROR(IF(VLOOKUP($A25,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R25">
-        <f>IFERROR(IF(VLOOKUP($A25,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S25">
-        <f>IFERROR(IF(VLOOKUP($A25,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T25">
-        <f>IFERROR(IF(VLOOKUP($A25,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U25">
-        <f>IFERROR(IF(VLOOKUP($A25,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V25" s="3">
-        <f>SUM(B25:U25)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="W25">
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="3">
-        <f>+SUM(W25:AD25)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF25" s="3"/>
@@ -7305,92 +7305,92 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
     </row>
-    <row r="26" spans="1:56" ht="19">
+    <row r="26" spans="1:56" ht="18.75">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26">
-        <f>IFERROR(IF(VLOOKUP($A26,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C26">
-        <f>IFERROR(IF(VLOOKUP($A26,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D26">
-        <f>IFERROR(IF(VLOOKUP($A26,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E26">
-        <f>IFERROR(IF(VLOOKUP($A26,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F26">
-        <f>IFERROR(IF(VLOOKUP($A26,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G26">
-        <f>IFERROR(IF(VLOOKUP($A26,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H26">
-        <f>IFERROR(IF(VLOOKUP($A26,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I26">
-        <f>IFERROR(IF(VLOOKUP($A26,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J26">
-        <f>IFERROR(IF(VLOOKUP($A26,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K26">
-        <f>IFERROR(IF(VLOOKUP($A26,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L26">
-        <f>IFERROR(IF(VLOOKUP($A26,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M26">
-        <f>IFERROR(IF(VLOOKUP($A26,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N26">
-        <f>IFERROR(IF(VLOOKUP($A26,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O26">
-        <f>IFERROR(IF(VLOOKUP($A26,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P26">
-        <f>IFERROR(IF(VLOOKUP($A26,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q26">
-        <f>IFERROR(IF(VLOOKUP($A26,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R26">
-        <f>IFERROR(IF(VLOOKUP($A26,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S26">
-        <f>IFERROR(IF(VLOOKUP($A26,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T26">
-        <f>IFERROR(IF(VLOOKUP($A26,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U26">
-        <f>IFERROR(IF(VLOOKUP($A26,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V26" s="3">
-        <f>SUM(B26:U26)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="W26">
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="3">
-        <f>+SUM(W26:AD26)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF26" s="3"/>
@@ -7425,92 +7425,92 @@
       </c>
       <c r="AI26" s="3"/>
     </row>
-    <row r="27" spans="1:56" ht="19">
+    <row r="27" spans="1:56" ht="18.75">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <f>IFERROR(IF(VLOOKUP($A27,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C27">
-        <f>IFERROR(IF(VLOOKUP($A27,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D27">
-        <f>IFERROR(IF(VLOOKUP($A27,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>IFERROR(IF(VLOOKUP($A27,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <f>IFERROR(IF(VLOOKUP($A27,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>IFERROR(IF(VLOOKUP($A27,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>IFERROR(IF(VLOOKUP($A27,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>IFERROR(IF(VLOOKUP($A27,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>IFERROR(IF(VLOOKUP($A27,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>IFERROR(IF(VLOOKUP($A27,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L27">
-        <f>IFERROR(IF(VLOOKUP($A27,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>IFERROR(IF(VLOOKUP($A27,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N27">
-        <f>IFERROR(IF(VLOOKUP($A27,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f>IFERROR(IF(VLOOKUP($A27,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P27">
-        <f>IFERROR(IF(VLOOKUP($A27,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>IFERROR(IF(VLOOKUP($A27,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>IFERROR(IF(VLOOKUP($A27,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>IFERROR(IF(VLOOKUP($A27,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T27">
-        <f>IFERROR(IF(VLOOKUP($A27,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>IFERROR(IF(VLOOKUP($A27,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V27" s="3">
-        <f>SUM(B27:U27)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="W27">
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="3">
-        <f>+SUM(W27:AD27)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AF27" s="3"/>
@@ -7548,92 +7548,92 @@
       </c>
       <c r="AI27" s="3"/>
     </row>
-    <row r="28" spans="1:56" ht="19">
+    <row r="28" spans="1:56" ht="18.75">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <f>IFERROR(IF(VLOOKUP($A28,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C28">
-        <f>IFERROR(IF(VLOOKUP($A28,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D28">
-        <f>IFERROR(IF(VLOOKUP($A28,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>IFERROR(IF(VLOOKUP($A28,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>IFERROR(IF(VLOOKUP($A28,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>IFERROR(IF(VLOOKUP($A28,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>IFERROR(IF(VLOOKUP($A28,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I28">
-        <f>IFERROR(IF(VLOOKUP($A28,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>IFERROR(IF(VLOOKUP($A28,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>IFERROR(IF(VLOOKUP($A28,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>IFERROR(IF(VLOOKUP($A28,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>IFERROR(IF(VLOOKUP($A28,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>IFERROR(IF(VLOOKUP($A28,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O28">
-        <f>IFERROR(IF(VLOOKUP($A28,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P28">
-        <f>IFERROR(IF(VLOOKUP($A28,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>IFERROR(IF(VLOOKUP($A28,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f>IFERROR(IF(VLOOKUP($A28,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f>IFERROR(IF(VLOOKUP($A28,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T28">
-        <f>IFERROR(IF(VLOOKUP($A28,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U28">
-        <f>IFERROR(IF(VLOOKUP($A28,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V28" s="3">
-        <f>SUM(B28:U28)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W28">
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="3">
-        <f>+SUM(W28:AD28)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF28" s="3"/>
@@ -7672,87 +7672,87 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>IFERROR(IF(VLOOKUP($A29,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C29">
-        <f>IFERROR(IF(VLOOKUP($A29,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>IFERROR(IF(VLOOKUP($A29,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>IFERROR(IF(VLOOKUP($A29,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>IFERROR(IF(VLOOKUP($A29,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G29">
-        <f>IFERROR(IF(VLOOKUP($A29,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>IFERROR(IF(VLOOKUP($A29,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>IFERROR(IF(VLOOKUP($A29,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>IFERROR(IF(VLOOKUP($A29,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>IFERROR(IF(VLOOKUP($A29,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>IFERROR(IF(VLOOKUP($A29,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M29">
-        <f>IFERROR(IF(VLOOKUP($A29,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N29">
-        <f>IFERROR(IF(VLOOKUP($A29,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O29">
-        <f>IFERROR(IF(VLOOKUP($A29,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f>IFERROR(IF(VLOOKUP($A29,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q29">
-        <f>IFERROR(IF(VLOOKUP($A29,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f>IFERROR(IF(VLOOKUP($A29,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S29">
-        <f>IFERROR(IF(VLOOKUP($A29,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T29">
-        <f>IFERROR(IF(VLOOKUP($A29,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U29">
-        <f>IFERROR(IF(VLOOKUP($A29,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V29" s="3">
-        <f>SUM(B29:U29)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="W29">
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="3">
-        <f>+SUM(W29:AD29)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AF29" s="3"/>
@@ -7793,87 +7793,87 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>IFERROR(IF(VLOOKUP($A30,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C30">
-        <f>IFERROR(IF(VLOOKUP($A30,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D30">
-        <f>IFERROR(IF(VLOOKUP($A30,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>IFERROR(IF(VLOOKUP($A30,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>IFERROR(IF(VLOOKUP($A30,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G30">
-        <f>IFERROR(IF(VLOOKUP($A30,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>IFERROR(IF(VLOOKUP($A30,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>IFERROR(IF(VLOOKUP($A30,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>IFERROR(IF(VLOOKUP($A30,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K30">
-        <f>IFERROR(IF(VLOOKUP($A30,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L30">
-        <f>IFERROR(IF(VLOOKUP($A30,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f>IFERROR(IF(VLOOKUP($A30,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N30">
-        <f>IFERROR(IF(VLOOKUP($A30,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f>IFERROR(IF(VLOOKUP($A30,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f>IFERROR(IF(VLOOKUP($A30,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f>IFERROR(IF(VLOOKUP($A30,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R30">
-        <f>IFERROR(IF(VLOOKUP($A30,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f>IFERROR(IF(VLOOKUP($A30,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T30">
-        <f>IFERROR(IF(VLOOKUP($A30,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U30">
-        <f>IFERROR(IF(VLOOKUP($A30,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V30" s="3">
-        <f>SUM(B30:U30)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="W30">
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="3">
-        <f>+SUM(W30:AD30)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AF30" s="3"/>
@@ -7909,92 +7909,92 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
     </row>
-    <row r="31" spans="1:56" ht="19">
+    <row r="31" spans="1:56" ht="18.75">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31">
-        <f>IFERROR(IF(VLOOKUP($A31,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C31">
-        <f>IFERROR(IF(VLOOKUP($A31,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D31">
-        <f>IFERROR(IF(VLOOKUP($A31,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E31">
-        <f>IFERROR(IF(VLOOKUP($A31,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F31">
-        <f>IFERROR(IF(VLOOKUP($A31,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G31">
-        <f>IFERROR(IF(VLOOKUP($A31,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H31">
-        <f>IFERROR(IF(VLOOKUP($A31,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>IFERROR(IF(VLOOKUP($A31,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J31">
-        <f>IFERROR(IF(VLOOKUP($A31,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K31">
-        <f>IFERROR(IF(VLOOKUP($A31,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L31">
-        <f>IFERROR(IF(VLOOKUP($A31,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>IFERROR(IF(VLOOKUP($A31,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N31">
-        <f>IFERROR(IF(VLOOKUP($A31,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f>IFERROR(IF(VLOOKUP($A31,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f>IFERROR(IF(VLOOKUP($A31,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q31">
-        <f>IFERROR(IF(VLOOKUP($A31,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R31">
-        <f>IFERROR(IF(VLOOKUP($A31,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S31">
-        <f>IFERROR(IF(VLOOKUP($A31,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T31">
-        <f>IFERROR(IF(VLOOKUP($A31,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U31">
-        <f>IFERROR(IF(VLOOKUP($A31,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V31" s="3">
-        <f>SUM(B31:U31)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="W31">
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="3">
-        <f>+SUM(W31:AD31)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF31" s="3"/>
@@ -8028,92 +8028,92 @@
       <c r="AI31" s="3"/>
       <c r="AK31" s="5"/>
     </row>
-    <row r="32" spans="1:56" ht="19">
+    <row r="32" spans="1:56" ht="18.75">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <f>IFERROR(IF(VLOOKUP($A32,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C32">
-        <f>IFERROR(IF(VLOOKUP($A32,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f>IFERROR(IF(VLOOKUP($A32,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>IFERROR(IF(VLOOKUP($A32,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>IFERROR(IF(VLOOKUP($A32,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>IFERROR(IF(VLOOKUP($A32,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>IFERROR(IF(VLOOKUP($A32,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>IFERROR(IF(VLOOKUP($A32,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>IFERROR(IF(VLOOKUP($A32,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>IFERROR(IF(VLOOKUP($A32,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f>IFERROR(IF(VLOOKUP($A32,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f>IFERROR(IF(VLOOKUP($A32,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f>IFERROR(IF(VLOOKUP($A32,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O32">
-        <f>IFERROR(IF(VLOOKUP($A32,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f>IFERROR(IF(VLOOKUP($A32,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f>IFERROR(IF(VLOOKUP($A32,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f>IFERROR(IF(VLOOKUP($A32,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S32">
-        <f>IFERROR(IF(VLOOKUP($A32,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T32">
-        <f>IFERROR(IF(VLOOKUP($A32,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U32">
-        <f>IFERROR(IF(VLOOKUP($A32,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <f>SUM(B32:U32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W32">
@@ -8138,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="AE32" s="3">
-        <f>+SUM(W32:AD32)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AF32" s="3"/>
@@ -8147,92 +8147,92 @@
       <c r="AI32" s="3"/>
       <c r="AK32" s="5"/>
     </row>
-    <row r="33" spans="1:37" ht="19">
+    <row r="33" spans="1:37" ht="18.75">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33">
-        <f>IFERROR(IF(VLOOKUP($A33,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C33">
-        <f>IFERROR(IF(VLOOKUP($A33,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D33">
-        <f>IFERROR(IF(VLOOKUP($A33,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>IFERROR(IF(VLOOKUP($A33,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F33">
-        <f>IFERROR(IF(VLOOKUP($A33,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G33">
-        <f>IFERROR(IF(VLOOKUP($A33,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f>IFERROR(IF(VLOOKUP($A33,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I33">
-        <f>IFERROR(IF(VLOOKUP($A33,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>IFERROR(IF(VLOOKUP($A33,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K33">
-        <f>IFERROR(IF(VLOOKUP($A33,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L33">
-        <f>IFERROR(IF(VLOOKUP($A33,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M33">
-        <f>IFERROR(IF(VLOOKUP($A33,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f>IFERROR(IF(VLOOKUP($A33,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O33">
-        <f>IFERROR(IF(VLOOKUP($A33,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P33">
-        <f>IFERROR(IF(VLOOKUP($A33,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q33">
-        <f>IFERROR(IF(VLOOKUP($A33,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R33">
-        <f>IFERROR(IF(VLOOKUP($A33,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S33">
-        <f>IFERROR(IF(VLOOKUP($A33,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T33">
-        <f>IFERROR(IF(VLOOKUP($A33,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U33">
-        <f>IFERROR(IF(VLOOKUP($A33,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <f>SUM(B33:U33)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="W33">
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="3">
-        <f>+SUM(W33:AD33)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AF33" s="3"/>
@@ -8266,92 +8266,92 @@
       <c r="AI33" s="3"/>
       <c r="AK33" s="5"/>
     </row>
-    <row r="34" spans="1:37" ht="19">
+    <row r="34" spans="1:37" ht="18.75">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <f>IFERROR(IF(VLOOKUP($A34,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C34">
-        <f>IFERROR(IF(VLOOKUP($A34,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D34">
-        <f>IFERROR(IF(VLOOKUP($A34,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>IFERROR(IF(VLOOKUP($A34,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f>IFERROR(IF(VLOOKUP($A34,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>IFERROR(IF(VLOOKUP($A34,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>IFERROR(IF(VLOOKUP($A34,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>IFERROR(IF(VLOOKUP($A34,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J34">
-        <f>IFERROR(IF(VLOOKUP($A34,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f>IFERROR(IF(VLOOKUP($A34,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>IFERROR(IF(VLOOKUP($A34,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M34">
-        <f>IFERROR(IF(VLOOKUP($A34,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>IFERROR(IF(VLOOKUP($A34,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O34">
-        <f>IFERROR(IF(VLOOKUP($A34,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P34">
-        <f>IFERROR(IF(VLOOKUP($A34,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f>IFERROR(IF(VLOOKUP($A34,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f>IFERROR(IF(VLOOKUP($A34,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f>IFERROR(IF(VLOOKUP($A34,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T34">
-        <f>IFERROR(IF(VLOOKUP($A34,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U34">
-        <f>IFERROR(IF(VLOOKUP($A34,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V34" s="3">
-        <f>SUM(B34:U34)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="W34">
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="3">
-        <f>+SUM(W34:AD34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF34" s="3"/>
@@ -8385,92 +8385,92 @@
       <c r="AI34" s="3"/>
       <c r="AK34" s="5"/>
     </row>
-    <row r="35" spans="1:37" ht="19">
+    <row r="35" spans="1:37" ht="18.75">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <f>IFERROR(IF(VLOOKUP($A35,$AK$2:$AK$20,1,0),1,0),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C35">
-        <f>IFERROR(IF(VLOOKUP($A35,AL$2:AL$20,1,0),1,0),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>IFERROR(IF(VLOOKUP($A35,AM$2:AM$20,1,0),1,0),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>IFERROR(IF(VLOOKUP($A35,AN$2:AN$20,1,0),1,0),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>IFERROR(IF(VLOOKUP($A35,AO$2:AO$20,1,0),1,0),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>IFERROR(IF(VLOOKUP($A35,AP$2:AP$20,1,0),1,0),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <f>IFERROR(IF(VLOOKUP($A35,AQ$2:AQ$20,1,0),1,0),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>IFERROR(IF(VLOOKUP($A35,AR$2:AR$20,1,0),1,0),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>IFERROR(IF(VLOOKUP($A35,AS$2:AS$20,1,0),1,0),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>IFERROR(IF(VLOOKUP($A35,AT$2:AT$20,1,0),1,0),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>IFERROR(IF(VLOOKUP($A35,AU$2:AU$20,1,0),1,0),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>IFERROR(IF(VLOOKUP($A35,AV$2:AV$20,1,0),1,0),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>IFERROR(IF(VLOOKUP($A35,AW$2:AW$20,1,0),1,0),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>IFERROR(IF(VLOOKUP($A35,AX$2:AX$20,1,0),1,0),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f>IFERROR(IF(VLOOKUP($A35,AY$2:AY$20,1,0),1,0),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f>IFERROR(IF(VLOOKUP($A35,AZ$2:AZ$20,1,0),1,0),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R35">
-        <f>IFERROR(IF(VLOOKUP($A35,BA$2:BA$20,1,0),1,0),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S35">
-        <f>IFERROR(IF(VLOOKUP($A35,BB$2:BB$20,1,0),1,0),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T35">
-        <f>IFERROR(IF(VLOOKUP($A35,BC$2:BC$20,1,0),1,0),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U35">
-        <f>IFERROR(IF(VLOOKUP($A35,BD$2:BD$20,1,0),1,0),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <f>SUM(B35:U35)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W35">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="3">
-        <f>+SUM(W35:AD35)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF35" s="3"/>
@@ -8504,7 +8504,7 @@
       <c r="AI35" s="3"/>
       <c r="AK35" s="5"/>
     </row>
-    <row r="36" spans="1:37" ht="19">
+    <row r="36" spans="1:37" ht="18.75">
       <c r="B36">
         <v>0.83</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>0.85</v>
       </c>
       <c r="V36" s="3">
-        <f>SUM(B36:U36)</f>
+        <f t="shared" si="2"/>
         <v>16.91</v>
       </c>
       <c r="Y36" t="s">
@@ -8585,7 +8585,7 @@
         <v>33</v>
       </c>
       <c r="AE36" s="3">
-        <f>+SUM(W36:AD36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF36" s="3"/>
@@ -8594,194 +8594,194 @@
       <c r="AI36" s="3"/>
       <c r="AK36" s="5"/>
     </row>
-    <row r="37" spans="1:37" ht="19">
+    <row r="37" spans="1:37" ht="18.75">
       <c r="B37">
-        <f>+SUM(B2:B35)</f>
+        <f t="shared" ref="B37:U37" si="26">+SUM(B2:B35)</f>
         <v>11</v>
       </c>
       <c r="C37">
-        <f>+SUM(C2:C35)</f>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="D37">
-        <f>+SUM(D2:D35)</f>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="E37">
-        <f>+SUM(E2:E35)</f>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="F37">
-        <f>+SUM(F2:F35)</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="G37">
-        <f>+SUM(G2:G35)</f>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="H37">
-        <f>+SUM(H2:H35)</f>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="I37">
-        <f>+SUM(I2:I35)</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="J37">
-        <f>+SUM(J2:J35)</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="K37">
-        <f>+SUM(K2:K35)</f>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="L37">
-        <f>+SUM(L2:L35)</f>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="M37">
-        <f>+SUM(M2:M35)</f>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="N37">
-        <f>+SUM(N2:N35)</f>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="O37">
-        <f>+SUM(O2:O35)</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="P37">
-        <f>+SUM(P2:P35)</f>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="Q37">
-        <f>+SUM(Q2:Q35)</f>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="R37">
-        <f>+SUM(R2:R35)</f>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="S37">
-        <f>+SUM(S2:S35)</f>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="T37">
-        <f>+SUM(T2:T35)</f>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="U37">
-        <f>+SUM(U2:U35)</f>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="W37">
-        <f>+SUM(W2:W35)</f>
+        <f t="shared" ref="W37:AD37" si="27">+SUM(W2:W35)</f>
         <v>16</v>
       </c>
       <c r="X37">
-        <f>+SUM(X2:X35)</f>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="Y37">
-        <f>+SUM(Y2:Y35)</f>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="Z37">
-        <f>+SUM(Z2:Z35)</f>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="AA37">
-        <f>+SUM(AA2:AA35)</f>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="AB37">
-        <f>+SUM(AB2:AB35)</f>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="AC37">
-        <f>+SUM(AC2:AC35)</f>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
       <c r="AD37">
-        <f>+SUM(AD2:AD35)</f>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="AK37" s="5"/>
     </row>
-    <row r="38" spans="1:37" ht="19">
+    <row r="38" spans="1:37" ht="18.75">
       <c r="AK38" s="5"/>
     </row>
-    <row r="39" spans="1:37" ht="19">
+    <row r="39" spans="1:37" ht="18.75">
       <c r="AK39" s="5"/>
     </row>
-    <row r="40" spans="1:37" ht="19">
+    <row r="40" spans="1:37" ht="18.75">
       <c r="AK40" s="5"/>
     </row>
-    <row r="41" spans="1:37" ht="19">
+    <row r="41" spans="1:37" ht="18.75">
       <c r="AK41" s="5"/>
     </row>
-    <row r="42" spans="1:37" ht="19">
+    <row r="42" spans="1:37" ht="18.75">
       <c r="AK42" s="5"/>
     </row>
-    <row r="43" spans="1:37" ht="19">
+    <row r="43" spans="1:37" ht="18.75">
       <c r="AK43" s="5"/>
     </row>
-    <row r="44" spans="1:37" ht="19">
+    <row r="44" spans="1:37" ht="18.75">
       <c r="AK44" s="5"/>
     </row>
-    <row r="45" spans="1:37" ht="19">
+    <row r="45" spans="1:37" ht="18.75">
       <c r="AK45" s="5"/>
     </row>
-    <row r="46" spans="1:37" ht="19">
+    <row r="46" spans="1:37" ht="18.75">
       <c r="AK46" s="5"/>
     </row>
-    <row r="47" spans="1:37" ht="19">
+    <row r="47" spans="1:37" ht="18.75">
       <c r="AK47" s="5"/>
     </row>
-    <row r="48" spans="1:37" ht="19">
+    <row r="48" spans="1:37" ht="18.75">
       <c r="AK48" s="5"/>
     </row>
-    <row r="49" spans="37:37" ht="19">
+    <row r="49" spans="37:37" ht="18.75">
       <c r="AK49" s="5"/>
     </row>
-    <row r="50" spans="37:37" ht="19">
+    <row r="50" spans="37:37" ht="18.75">
       <c r="AK50" s="5"/>
     </row>
-    <row r="51" spans="37:37" ht="19">
+    <row r="51" spans="37:37" ht="18.75">
       <c r="AK51" s="5"/>
     </row>
-    <row r="52" spans="37:37" ht="19">
+    <row r="52" spans="37:37" ht="18.75">
       <c r="AK52" s="5"/>
     </row>
-    <row r="53" spans="37:37" ht="19">
+    <row r="53" spans="37:37" ht="18.75">
       <c r="AK53" s="5"/>
     </row>
-    <row r="54" spans="37:37" ht="19">
+    <row r="54" spans="37:37" ht="18.75">
       <c r="AK54" s="5"/>
     </row>
-    <row r="55" spans="37:37" ht="19">
+    <row r="55" spans="37:37" ht="18.75">
       <c r="AK55" s="5"/>
     </row>
-    <row r="56" spans="37:37" ht="19">
+    <row r="56" spans="37:37" ht="18.75">
       <c r="AK56" s="5"/>
     </row>
-    <row r="57" spans="37:37" ht="19">
+    <row r="57" spans="37:37" ht="18.75">
       <c r="AK57" s="5"/>
     </row>
-    <row r="58" spans="37:37" ht="19">
+    <row r="58" spans="37:37" ht="18.75">
       <c r="AK58" s="5"/>
     </row>
-    <row r="59" spans="37:37" ht="19">
+    <row r="59" spans="37:37" ht="18.75">
       <c r="AK59" s="5"/>
     </row>
-    <row r="60" spans="37:37" ht="19">
+    <row r="60" spans="37:37" ht="18.75">
       <c r="AK60" s="5"/>
     </row>
-    <row r="61" spans="37:37" ht="19">
+    <row r="61" spans="37:37" ht="18.75">
       <c r="AK61" s="5"/>
     </row>
-    <row r="62" spans="37:37" ht="19">
+    <row r="62" spans="37:37" ht="18.75">
       <c r="AK62" s="5"/>
     </row>
   </sheetData>
@@ -8863,23 +8863,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A59654-933E-264A-BE3D-BC19FDB1E4BB}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="30" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="7" customWidth="1"/>
-    <col min="5" max="17" width="9.33203125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="30" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="7" customWidth="1"/>
+    <col min="5" max="17" width="9.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" ht="62" customHeight="1">
+    <row r="1" spans="1:20" s="25" customFormat="1" ht="62.1" customHeight="1">
       <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1">
+    <row r="3" spans="1:20">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -9026,11 +9025,11 @@
         <v>11</v>
       </c>
       <c r="R3" s="15">
-        <f t="shared" ref="R3:R37" si="1">Q3/15</f>
+        <f t="shared" ref="R3:R35" si="1">Q3/15</f>
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19" hidden="1">
+    <row r="4" spans="1:20" ht="18.75">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19" hidden="1">
+    <row r="5" spans="1:20" ht="18.75">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -9119,7 +9118,7 @@
       </c>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="19" hidden="1">
+    <row r="6" spans="1:20" ht="18.75">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -9150,7 +9149,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19" hidden="1">
+    <row r="7" spans="1:20" ht="18.75">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -9187,7 +9186,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19" hidden="1">
+    <row r="8" spans="1:20" ht="18.75">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19" hidden="1">
+    <row r="9" spans="1:20" ht="18.75">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19" hidden="1">
+    <row r="10" spans="1:20" ht="18.75">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19">
+    <row r="11" spans="1:20" ht="18.75">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -9339,7 +9338,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19" hidden="1">
+    <row r="12" spans="1:20" ht="18.75">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -9385,7 +9384,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19">
+    <row r="13" spans="1:20" ht="18.75">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19" hidden="1">
+    <row r="14" spans="1:20" ht="18.75">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -9464,7 +9463,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19" hidden="1">
+    <row r="15" spans="1:20" ht="18.75">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -9503,7 +9502,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="19" hidden="1">
+    <row r="16" spans="1:20" ht="18.75">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -9533,7 +9532,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19" hidden="1">
+    <row r="17" spans="1:18" ht="18.75">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -9557,7 +9556,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19">
+    <row r="18" spans="1:18" ht="18.75">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19" hidden="1">
+    <row r="19" spans="1:18" ht="18.75">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -9652,7 +9651,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="19" hidden="1">
+    <row r="20" spans="1:18" ht="18.75">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -9687,7 +9686,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="19" hidden="1">
+    <row r="21" spans="1:18" ht="18.75">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19" hidden="1">
+    <row r="22" spans="1:18" ht="18.75">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -9757,7 +9756,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19" hidden="1">
+    <row r="23" spans="1:18" ht="18.75">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -9843,7 +9842,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1">
+    <row r="25" spans="1:18">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -9880,7 +9879,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1">
+    <row r="26" spans="1:18">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -9923,7 +9922,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1">
+    <row r="27" spans="1:18">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -9948,7 +9947,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1">
+    <row r="28" spans="1:18">
       <c r="A28" s="28">
         <v>27</v>
       </c>
@@ -9991,7 +9990,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1">
+    <row r="29" spans="1:18">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1">
+    <row r="30" spans="1:18">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -10035,7 +10034,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1">
+    <row r="31" spans="1:18">
       <c r="A31" s="28">
         <v>30</v>
       </c>
@@ -10072,7 +10071,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1">
+    <row r="32" spans="1:18">
       <c r="A32" s="28">
         <v>31</v>
       </c>
@@ -10097,7 +10096,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1">
+    <row r="33" spans="1:18">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1">
+    <row r="34" spans="1:18">
       <c r="A34" s="28">
         <v>33</v>
       </c>
@@ -10147,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1">
+    <row r="35" spans="1:18">
       <c r="A35" s="28">
         <v>34</v>
       </c>
@@ -10165,63 +10164,63 @@
         <v>95</v>
       </c>
       <c r="B36" s="32">
-        <f>SUM(B2:B35)</f>
+        <f t="shared" ref="B36:P36" si="2">SUM(B2:B35)</f>
         <v>17</v>
       </c>
       <c r="C36" s="32">
-        <f>SUM(C2:C35)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D36" s="33">
-        <f>SUM(D2:D35)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E36" s="32">
-        <f>SUM(E2:E35)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="F36" s="32">
-        <f>SUM(F2:F35)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="G36" s="32">
-        <f>SUM(G2:G35)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H36" s="32">
-        <f>SUM(H2:H35)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I36" s="32">
-        <f>SUM(I2:I35)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J36" s="32">
-        <f>SUM(J2:J35)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="K36" s="32">
-        <f>SUM(K2:K35)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L36" s="32">
-        <f>SUM(L2:L35)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M36" s="32">
-        <f>SUM(M2:M35)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="N36" s="32">
-        <f>SUM(N2:N35)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="O36" s="32">
-        <f>SUM(O2:O35)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="P36" s="32">
-        <f>SUM(P2:P35)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="Q36" s="32"/>
@@ -10270,7 +10269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="19">
+    <row r="45" spans="1:18" ht="18.75">
       <c r="B45" s="17" t="s">
         <v>24</v>
       </c>
@@ -10278,7 +10277,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="19">
+    <row r="46" spans="1:18" ht="18.75">
       <c r="B46" s="17" t="s">
         <v>25</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="19">
+    <row r="47" spans="1:18" ht="18.75">
       <c r="B47" s="17" t="s">
         <v>36</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="19">
+    <row r="48" spans="1:18" ht="18.75">
       <c r="B48" s="17" t="s">
         <v>55</v>
       </c>
@@ -10302,7 +10301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="19">
+    <row r="49" spans="2:13" ht="18.75">
       <c r="B49" s="17" t="s">
         <v>40</v>
       </c>
@@ -10310,7 +10309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="19">
+    <row r="50" spans="2:13" ht="18.75">
       <c r="B50" s="17" t="s">
         <v>41</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="19">
+    <row r="51" spans="2:13" ht="18.75">
       <c r="B51" s="17" t="s">
         <v>42</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="19">
+    <row r="52" spans="2:13" ht="18.75">
       <c r="B52" s="17" t="s">
         <v>43</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="19">
+    <row r="53" spans="2:13" ht="18.75">
       <c r="B53" s="17" t="s">
         <v>28</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="19">
+    <row r="54" spans="2:13" ht="18.75">
       <c r="B54" s="17" t="s">
         <v>46</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="19">
+    <row r="55" spans="2:13" ht="18.75">
       <c r="B55" s="17" t="s">
         <v>47</v>
       </c>
@@ -10358,7 +10357,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="19">
+    <row r="56" spans="2:13" ht="18.75">
       <c r="B56" s="17" t="s">
         <v>32</v>
       </c>
@@ -10372,15 +10371,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R37" xr:uid="{42973B06-B9E2-3546-A39D-5E82603D7C40}">
-    <filterColumn colId="17">
-      <filters blank="1">
-        <filter val="0,800"/>
-        <filter val="0,867"/>
-        <filter val="0,933"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R37" xr:uid="{42973B06-B9E2-3546-A39D-5E82603D7C40}"/>
   <conditionalFormatting sqref="B2:P35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -10417,7 +10408,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="3:14" ht="23">
+    <row r="4" spans="3:14" ht="23.25">
       <c r="C4" s="6" t="s">
         <v>89</v>
       </c>
@@ -10425,7 +10416,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="23">
+    <row r="5" spans="3:14" ht="23.25">
       <c r="C5" s="6" t="s">
         <v>91</v>
       </c>
@@ -10439,7 +10430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="19">
+    <row r="6" spans="3:14" ht="18.75">
       <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
@@ -10447,7 +10438,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="19">
+    <row r="7" spans="3:14" ht="18.75">
       <c r="C7" s="5" t="s">
         <v>59</v>
       </c>
@@ -10455,7 +10446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="19">
+    <row r="8" spans="3:14" ht="18.75">
       <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
@@ -10463,7 +10454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="19">
+    <row r="9" spans="3:14" ht="18.75">
       <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
@@ -10471,7 +10462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="19">
+    <row r="10" spans="3:14" ht="18.75">
       <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
@@ -10482,7 +10473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="19">
+    <row r="11" spans="3:14" ht="18.75">
       <c r="C11" s="5" t="s">
         <v>58</v>
       </c>
@@ -10493,7 +10484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="19">
+    <row r="12" spans="3:14" ht="18.75">
       <c r="C12" s="5" t="s">
         <v>62</v>
       </c>
@@ -10501,7 +10492,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="19">
+    <row r="13" spans="3:14" ht="18.75">
       <c r="C13" s="5" t="s">
         <v>60</v>
       </c>
@@ -10509,7 +10500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="19">
+    <row r="14" spans="3:14" ht="18.75">
       <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
@@ -10517,7 +10508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="19">
+    <row r="15" spans="3:14" ht="18.75">
       <c r="C15" s="5" t="s">
         <v>57</v>
       </c>
@@ -10531,7 +10522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="19">
+    <row r="16" spans="3:14" ht="18.75">
       <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
@@ -10539,7 +10530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="19">
+    <row r="17" spans="3:14" ht="18.75">
       <c r="C17" s="5" t="s">
         <v>64</v>
       </c>
@@ -10547,7 +10538,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="19">
+    <row r="18" spans="3:14" ht="18.75">
       <c r="C18" s="5" t="s">
         <v>60</v>
       </c>
@@ -10555,7 +10546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="19">
+    <row r="19" spans="3:14" ht="18.75">
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -10563,7 +10554,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="19">
+    <row r="20" spans="3:14" ht="18.75">
       <c r="C20" s="5" t="s">
         <v>57</v>
       </c>
@@ -10577,7 +10568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="19">
+    <row r="21" spans="3:14" ht="18.75">
       <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
@@ -10585,7 +10576,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:14" ht="19">
+    <row r="22" spans="3:14" ht="18.75">
       <c r="C22" s="5" t="s">
         <v>66</v>
       </c>
@@ -10593,7 +10584,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="19">
+    <row r="23" spans="3:14" ht="18.75">
       <c r="C23" s="5" t="s">
         <v>60</v>
       </c>
@@ -10601,7 +10592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="3:14" ht="19">
+    <row r="24" spans="3:14" ht="18.75">
       <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
@@ -10609,7 +10600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="3:14" ht="19">
+    <row r="25" spans="3:14" ht="18.75">
       <c r="C25" s="5" t="s">
         <v>57</v>
       </c>
@@ -10620,7 +10611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="19">
+    <row r="26" spans="3:14" ht="18.75">
       <c r="C26" s="5" t="s">
         <v>58</v>
       </c>
@@ -10631,7 +10622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="3:14" ht="19">
+    <row r="27" spans="3:14" ht="18.75">
       <c r="C27" s="5" t="s">
         <v>68</v>
       </c>
@@ -10639,7 +10630,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="3:14" ht="19">
+    <row r="28" spans="3:14" ht="18.75">
       <c r="C28" s="5" t="s">
         <v>60</v>
       </c>
@@ -10647,7 +10638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="19">
+    <row r="29" spans="3:14" ht="18.75">
       <c r="C29" s="5" t="s">
         <v>69</v>
       </c>
@@ -10655,7 +10646,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="3:14" ht="19">
+    <row r="30" spans="3:14" ht="18.75">
       <c r="C30" s="5" t="s">
         <v>57</v>
       </c>
@@ -10669,7 +10660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:14" ht="19">
+    <row r="31" spans="3:14" ht="18.75">
       <c r="C31" s="5" t="s">
         <v>58</v>
       </c>
@@ -10677,7 +10668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="3:14" ht="19">
+    <row r="32" spans="3:14" ht="18.75">
       <c r="C32" s="5" t="s">
         <v>70</v>
       </c>
@@ -10685,7 +10676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="19">
+    <row r="33" spans="3:14" ht="18.75">
       <c r="C33" s="5" t="s">
         <v>60</v>
       </c>
@@ -10693,7 +10684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="19">
+    <row r="34" spans="3:14" ht="18.75">
       <c r="C34" s="5" t="s">
         <v>71</v>
       </c>
@@ -10701,7 +10692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="19">
+    <row r="35" spans="3:14" ht="18.75">
       <c r="C35" s="5" t="s">
         <v>57</v>
       </c>
@@ -10715,7 +10706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="19">
+    <row r="36" spans="3:14" ht="18.75">
       <c r="C36" s="5" t="s">
         <v>58</v>
       </c>
@@ -10723,7 +10714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="19">
+    <row r="37" spans="3:14" ht="18.75">
       <c r="C37" s="5" t="s">
         <v>72</v>
       </c>
@@ -10731,7 +10722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="19">
+    <row r="38" spans="3:14" ht="18.75">
       <c r="C38" s="5" t="s">
         <v>60</v>
       </c>
@@ -10739,7 +10730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="19">
+    <row r="39" spans="3:14" ht="18.75">
       <c r="C39" s="5" t="s">
         <v>73</v>
       </c>
@@ -10747,7 +10738,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="19">
+    <row r="40" spans="3:14" ht="18.75">
       <c r="C40" s="5" t="s">
         <v>57</v>
       </c>
@@ -10758,7 +10749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="19">
+    <row r="41" spans="3:14" ht="18.75">
       <c r="C41" s="5" t="s">
         <v>58</v>
       </c>
@@ -10769,7 +10760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="19">
+    <row r="42" spans="3:14" ht="18.75">
       <c r="C42" s="5" t="s">
         <v>74</v>
       </c>
@@ -10777,7 +10768,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="19">
+    <row r="43" spans="3:14" ht="18.75">
       <c r="C43" s="5" t="s">
         <v>60</v>
       </c>
@@ -10785,7 +10776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="3:14" ht="19">
+    <row r="44" spans="3:14" ht="18.75">
       <c r="C44" s="5" t="s">
         <v>61</v>
       </c>
@@ -10809,11 +10800,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="3"/>
+    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16">
+    <row r="2" spans="2:6" ht="15.75">
       <c r="B2" s="12" t="s">
         <v>49</v>
       </c>
@@ -10827,7 +10818,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16">
+    <row r="3" spans="2:6" ht="15.75">
       <c r="B3" s="12">
         <v>15</v>
       </c>
@@ -10842,7 +10833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="16">
+    <row r="4" spans="2:6" ht="15.75">
       <c r="B4" s="12">
         <v>16</v>
       </c>
@@ -10861,7 +10852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16">
+    <row r="5" spans="2:6" ht="15.75">
       <c r="B5" s="12">
         <v>24</v>
       </c>
@@ -10880,7 +10871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="16">
+    <row r="6" spans="2:6" ht="15.75">
       <c r="B6" s="12">
         <v>9</v>
       </c>
@@ -10899,7 +10890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16">
+    <row r="7" spans="2:6" ht="15.75">
       <c r="B7" s="12">
         <v>10</v>
       </c>
@@ -10918,7 +10909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16">
+    <row r="8" spans="2:6" ht="15.75">
       <c r="B8" s="12">
         <v>25</v>
       </c>
@@ -10937,7 +10928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16">
+    <row r="9" spans="2:6" ht="15.75">
       <c r="B9" s="12">
         <v>19</v>
       </c>
@@ -10956,7 +10947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16">
+    <row r="10" spans="2:6" ht="15.75">
       <c r="B10" s="12">
         <v>6</v>
       </c>
@@ -10975,7 +10966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16">
+    <row r="11" spans="2:6" ht="15.75">
       <c r="B11" s="12">
         <v>0</v>
       </c>
@@ -10994,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16">
+    <row r="12" spans="2:6" ht="15.75">
       <c r="B12" s="12">
         <v>1</v>
       </c>
@@ -11013,7 +11004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="16">
+    <row r="13" spans="2:6" ht="15.75">
       <c r="B13" s="12">
         <v>11</v>
       </c>
@@ -11032,7 +11023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16">
+    <row r="14" spans="2:6" ht="15.75">
       <c r="B14" s="12">
         <v>7</v>
       </c>
@@ -11051,7 +11042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16">
+    <row r="15" spans="2:6" ht="15.75">
       <c r="B15" s="12">
         <v>12</v>
       </c>
@@ -11070,7 +11061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16">
+    <row r="16" spans="2:6" ht="15.75">
       <c r="B16" s="12">
         <v>22</v>
       </c>
@@ -11089,7 +11080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16">
+    <row r="17" spans="2:6" ht="15.75">
       <c r="B17" s="12">
         <v>20</v>
       </c>
@@ -11108,7 +11099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16">
+    <row r="18" spans="2:6" ht="15.75">
       <c r="B18" s="12">
         <v>4</v>
       </c>
@@ -11127,7 +11118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16">
+    <row r="19" spans="2:6" ht="15.75">
       <c r="B19" s="12">
         <v>3</v>
       </c>
@@ -11146,7 +11137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16">
+    <row r="20" spans="2:6" ht="15.75">
       <c r="B20" s="12">
         <v>14</v>
       </c>
@@ -11165,7 +11156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16">
+    <row r="21" spans="2:6" ht="15.75">
       <c r="B21" s="12">
         <v>2</v>
       </c>
@@ -11184,7 +11175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16">
+    <row r="22" spans="2:6" ht="15.75">
       <c r="B22" s="12">
         <v>8</v>
       </c>
@@ -11203,7 +11194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16">
+    <row r="23" spans="2:6" ht="15.75">
       <c r="B23" s="12">
         <v>5</v>
       </c>
@@ -11222,7 +11213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16">
+    <row r="24" spans="2:6" ht="15.75">
       <c r="B24" s="12">
         <v>23</v>
       </c>
@@ -11241,7 +11232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16">
+    <row r="25" spans="2:6" ht="15.75">
       <c r="B25" s="12">
         <v>13</v>
       </c>
@@ -11260,7 +11251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16">
+    <row r="26" spans="2:6" ht="15.75">
       <c r="B26" s="12">
         <v>28</v>
       </c>
@@ -11279,7 +11270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16">
+    <row r="27" spans="2:6" ht="15.75">
       <c r="B27" s="12">
         <v>21</v>
       </c>
@@ -11298,7 +11289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="16">
+    <row r="28" spans="2:6" ht="15.75">
       <c r="B28" s="12">
         <v>31</v>
       </c>
@@ -11317,7 +11308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16">
+    <row r="29" spans="2:6" ht="15.75">
       <c r="B29" s="12">
         <v>26</v>
       </c>
@@ -11336,7 +11327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="16">
+    <row r="30" spans="2:6" ht="15.75">
       <c r="B30" s="12">
         <v>29</v>
       </c>
@@ -11355,7 +11346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="16">
+    <row r="31" spans="2:6" ht="15.75">
       <c r="B31" s="12">
         <v>30</v>
       </c>
@@ -11374,7 +11365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="16">
+    <row r="32" spans="2:6" ht="15.75">
       <c r="B32" s="12">
         <v>17</v>
       </c>
@@ -11393,7 +11384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16">
+    <row r="33" spans="2:6" ht="15.75">
       <c r="B33" s="12">
         <v>27</v>
       </c>
@@ -11412,7 +11403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16">
+    <row r="34" spans="2:6" ht="15.75">
       <c r="B34" s="12">
         <v>18</v>
       </c>
@@ -11431,7 +11422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="19">
+    <row r="35" spans="2:6" ht="18.75">
       <c r="B35" s="13" t="s">
         <v>52</v>
       </c>
@@ -11444,7 +11435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="19">
+    <row r="36" spans="2:6" ht="18.75">
       <c r="B36" s="14">
         <v>1</v>
       </c>
@@ -11467,14 +11458,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47A7FB8-1D29-F646-8A4F-B92669D8C45C}">
   <dimension ref="A3:V81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="88" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="88" workbookViewId="0">
       <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="8" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="3"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" s="19" customFormat="1">

--- a/Binary/Matriz selección de variablesv2.xlsx
+++ b/Binary/Matriz selección de variablesv2.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - CELSIA S.A E.S.P\Maestría\Metodos estadisticos avanzados\Competencia\Binary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{41363F96-E0F7-ED4D-8E09-02F365787421}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{094458DE-CC35-437B-B1BB-F922A1BA5629}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{41363F96-E0F7-ED4D-8E09-02F365787421}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{F50A924B-158F-4F6B-B27C-3ED801345212}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="sin estand" sheetId="3" r:id="rId2"/>
     <sheet name="estandariz" sheetId="4" r:id="rId3"/>
-    <sheet name="tablas" sheetId="6" r:id="rId4"/>
-    <sheet name="spike and slab" sheetId="5" r:id="rId5"/>
-    <sheet name="corridas" sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="9" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId5"/>
+    <sheet name="tablas" sheetId="6" r:id="rId6"/>
+    <sheet name="spike and slab" sheetId="5" r:id="rId7"/>
+    <sheet name="corridas" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">estandariz!$A$1:$R$37</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="124">
   <si>
     <t>PROMEDIO</t>
   </si>
@@ -403,6 +405,12 @@
   </si>
   <si>
     <t>DESVEST</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Probabilidad</t>
   </si>
 </sst>
 </file>
@@ -8865,16 +8873,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A59654-933E-264A-BE3D-BC19FDB1E4BB}">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R2" activeCellId="1" sqref="A2:A35 R2:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="30" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="7" customWidth="1"/>
-    <col min="5" max="17" width="9.28515625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="5" max="17" width="9.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10399,6 +10407,327 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9189B3-EDC6-40F0-83F0-990F7EE4251D}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="28">
+        <v>30</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="28">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15">
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="28">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="28">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC2CEDA-DEFC-4370-B810-37BD78F2D754}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2E5B58-D664-294D-9F7F-E7605796B887}">
   <dimension ref="C4:N44"/>
   <sheetViews>
@@ -10790,7 +11119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069B4A5F-AFA7-B444-9935-2736A981AFCA}">
   <dimension ref="B2:F36"/>
   <sheetViews>
@@ -11454,7 +11783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47A7FB8-1D29-F646-8A4F-B92669D8C45C}">
   <dimension ref="A3:V81"/>
   <sheetViews>
